--- a/nr-test-debug/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/nr-test-debug/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T11:38:12+00:00</t>
+    <t>2025-07-08T12:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
